--- a/cardapio_tms_tablet.xlsx
+++ b/cardapio_tms_tablet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/Tupi/PRODUÇÃO TMS/Deploy Programm/Cardápio TMS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F3FEE24-7592-4D5E-854D-2F9274F2A8D3}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF104367-8CA1-4247-97E2-04CC1C5CD700}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="244">
   <si>
     <t>Marca</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Galaxy Tab S</t>
   </si>
   <si>
-    <t>Tab M11</t>
-  </si>
-  <si>
     <t>TB330FU</t>
   </si>
   <si>
@@ -668,40 +665,109 @@
     <t>Lenovo</t>
   </si>
   <si>
-    <t>10.4</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>14.6</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>12.7</t>
-  </si>
-  <si>
-    <t>12.9</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
+    <t>8"</t>
+  </si>
+  <si>
+    <t>128GB</t>
+  </si>
+  <si>
+    <t>10.4"</t>
+  </si>
+  <si>
+    <t>Tab M11/ Tab K11</t>
+  </si>
+  <si>
+    <t>11"</t>
+  </si>
+  <si>
+    <t>12.4"</t>
+  </si>
+  <si>
+    <t>512GB</t>
+  </si>
+  <si>
+    <t>14.6"</t>
+  </si>
+  <si>
+    <t>10.9"</t>
+  </si>
+  <si>
+    <t>8.7"</t>
+  </si>
+  <si>
+    <t>64GB</t>
+  </si>
+  <si>
+    <t>12.7"</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>256GB</t>
+  </si>
+  <si>
+    <t>12.9"</t>
+  </si>
+  <si>
+    <t>10.1"</t>
+  </si>
+  <si>
+    <t>9"</t>
+  </si>
+  <si>
+    <t>10.5"</t>
+  </si>
+  <si>
+    <t>10.2"</t>
+  </si>
+  <si>
+    <t>8.3"</t>
+  </si>
+  <si>
+    <t>1TB</t>
+  </si>
+  <si>
+    <t>16GB</t>
+  </si>
+  <si>
+    <t>iPad Pro 13 (2024)</t>
+  </si>
+  <si>
+    <t>A2926</t>
+  </si>
+  <si>
+    <t>13"</t>
+  </si>
+  <si>
+    <t>Apple M4</t>
+  </si>
+  <si>
+    <t>Deca-Core 3.3GHz</t>
+  </si>
+  <si>
+    <t>iPadOS 17.4</t>
+  </si>
+  <si>
+    <t>iPad Air 13 (2024)</t>
+  </si>
+  <si>
+    <t>A2903</t>
+  </si>
+  <si>
+    <t>Octa-Core 3.5GHz</t>
+  </si>
+  <si>
+    <t>iPad Air 11 (2024)</t>
+  </si>
+  <si>
+    <t>A2899</t>
+  </si>
+  <si>
+    <t>iPad Pro 11 (2024)</t>
+  </si>
+  <si>
+    <t>A2837</t>
   </si>
 </sst>
 </file>
@@ -848,7 +914,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF4F4F"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -949,12 +1039,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="B1:B268"/>
@@ -963,10 +1049,10 @@
     <tableColumn id="1" xr3:uid="{91A366A6-E040-470A-8A78-E4CD71B267F1}" name="Marca"/>
     <tableColumn id="2" xr3:uid="{BD6653F6-2C6B-4C25-8651-1E48BA7C8EF8}" name="Nome comercial"/>
     <tableColumn id="3" xr3:uid="{BE82534C-6976-446A-A477-B348037A1554}" name="Modelo"/>
-    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -1283,7 +1369,7 @@
   <dimension ref="A1:R268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,25 +1452,25 @@
         <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="G2" s="18">
         <v>3</v>
       </c>
-      <c r="H2" s="4">
-        <v>32</v>
+      <c r="H2" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>19</v>
@@ -1399,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N2" s="4">
         <v>7040</v>
@@ -1414,7 +1500,7 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1422,25 +1508,25 @@
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="14">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
-        <v>32</v>
+      <c r="H3" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>19</v>
@@ -1455,7 +1541,7 @@
         <v>22</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N3" s="4">
         <v>7040</v>
@@ -1470,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1478,25 +1564,25 @@
         <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G4" s="14">
         <v>3</v>
       </c>
-      <c r="H4" s="4">
-        <v>32</v>
+      <c r="H4" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
@@ -1505,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N4" s="4">
         <v>5100</v>
@@ -1526,7 +1612,7 @@
         <v>23</v>
       </c>
       <c r="R4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1534,25 +1620,25 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G5" s="14">
         <v>3</v>
       </c>
-      <c r="H5" s="4">
-        <v>32</v>
+      <c r="H5" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>19</v>
@@ -1561,13 +1647,13 @@
         <v>24</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N5" s="4">
         <v>5100</v>
@@ -1582,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1590,25 +1676,25 @@
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="G6" s="14">
         <v>4</v>
       </c>
-      <c r="H6" s="4">
-        <v>32</v>
+      <c r="H6" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
@@ -1638,7 +1724,7 @@
         <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -1646,25 +1732,25 @@
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="G7" s="14">
         <v>3</v>
       </c>
-      <c r="H7" s="4">
-        <v>32</v>
+      <c r="H7" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>19</v>
@@ -1694,7 +1780,7 @@
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1702,25 +1788,25 @@
         <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G8" s="14">
         <v>4</v>
       </c>
-      <c r="H8" s="4">
-        <v>64</v>
+      <c r="H8" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>19</v>
@@ -1748,7 +1834,7 @@
         <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -1756,25 +1842,25 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="4">
-        <v>64</v>
+      <c r="H9" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
@@ -1802,7 +1888,7 @@
         <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -1810,25 +1896,25 @@
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="4">
-        <v>11</v>
+      <c r="D10" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G10" s="18">
         <v>4</v>
       </c>
-      <c r="H10" s="4">
-        <v>64</v>
+      <c r="H10" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>19</v>
@@ -1856,7 +1942,7 @@
         <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -1864,25 +1950,25 @@
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="4">
-        <v>11</v>
+      <c r="D11" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="18">
         <v>4</v>
       </c>
-      <c r="H11" s="4">
-        <v>64</v>
+      <c r="H11" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>19</v>
@@ -1910,7 +1996,7 @@
         <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -1918,25 +2004,25 @@
         <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8</v>
+      <c r="D12" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G12" s="4">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
-        <v>16</v>
+      <c r="H12" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>52</v>
@@ -1951,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N12" s="4">
         <v>4450</v>
@@ -1960,7 +2046,7 @@
         <v>2017</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>23</v>
@@ -1974,25 +2060,25 @@
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="4">
-        <v>8</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="G13" s="14">
         <v>4</v>
       </c>
-      <c r="H13" s="4">
-        <v>128</v>
+      <c r="H13" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>19</v>
@@ -2036,7 +2122,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>60</v>
@@ -2047,8 +2133,8 @@
       <c r="G14" s="4">
         <v>6</v>
       </c>
-      <c r="H14" s="4">
-        <v>128</v>
+      <c r="H14" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>19</v>
@@ -2092,7 +2178,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>38</v>
@@ -2103,8 +2189,8 @@
       <c r="G15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="4">
-        <v>128</v>
+      <c r="H15" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>19</v>
@@ -2142,25 +2228,25 @@
         <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="14">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
-        <v>128</v>
+      <c r="H16" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>19</v>
@@ -2175,7 +2261,7 @@
         <v>22</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16" s="4">
         <v>7040</v>
@@ -2198,25 +2284,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G17" s="14">
         <v>4</v>
       </c>
-      <c r="H17" s="4">
-        <v>128</v>
+      <c r="H17" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>19</v>
@@ -2231,7 +2317,7 @@
         <v>22</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N17" s="4">
         <v>7040</v>
@@ -2254,25 +2340,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
+      <c r="D18" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="18">
         <v>6</v>
       </c>
-      <c r="H18" s="4">
-        <v>128</v>
+      <c r="H18" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>19</v>
@@ -2310,25 +2396,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D19" s="4">
-        <v>11</v>
+      <c r="D19" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="18">
         <v>6</v>
       </c>
-      <c r="H19" s="4">
-        <v>128</v>
+      <c r="H19" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>19</v>
@@ -2366,25 +2452,25 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="14">
         <v>6</v>
       </c>
-      <c r="H20" s="4">
-        <v>128</v>
+      <c r="H20" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>19</v>
@@ -2399,7 +2485,7 @@
         <v>29</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N20" s="4">
         <v>10090</v>
@@ -2422,25 +2508,25 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="18">
         <v>6</v>
       </c>
-      <c r="H21" s="4">
-        <v>128</v>
+      <c r="H21" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>19</v>
@@ -2478,31 +2564,31 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D22" s="4">
-        <v>11</v>
+      <c r="D22" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="14">
         <v>8</v>
       </c>
-      <c r="H22" s="4">
-        <v>256</v>
+      <c r="H22" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>41</v>
@@ -2511,7 +2597,7 @@
         <v>29</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N22" s="4">
         <v>8000</v>
@@ -2534,31 +2620,31 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="18">
         <v>8</v>
       </c>
-      <c r="H23" s="4">
-        <v>256</v>
+      <c r="H23" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>41</v>
@@ -2567,7 +2653,7 @@
         <v>29</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N23" s="4">
         <v>10090</v>
@@ -2590,31 +2676,31 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="14">
         <v>8</v>
       </c>
-      <c r="H24" s="4">
-        <v>128</v>
+      <c r="H24" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>49</v>
@@ -2623,7 +2709,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N24" s="4">
         <v>11200</v>
@@ -2646,25 +2732,25 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="4">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="G25" s="14">
         <v>8</v>
       </c>
-      <c r="H25" s="4">
-        <v>128</v>
+      <c r="H25" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>19</v>
@@ -2679,7 +2765,7 @@
         <v>29</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N25" s="4">
         <v>8400</v>
@@ -2702,25 +2788,25 @@
         <v>17</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="4">
-        <v>11</v>
+      <c r="D26" s="15" t="s">
+        <v>213</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="G26" s="16">
         <v>8</v>
       </c>
-      <c r="H26" s="15">
-        <v>128</v>
+      <c r="H26" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>19</v>
@@ -2735,7 +2821,7 @@
         <v>22</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N26" s="17">
         <v>8400</v>
@@ -2758,25 +2844,25 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="18">
         <v>6</v>
       </c>
-      <c r="H27" s="4">
-        <v>128</v>
+      <c r="H27" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>19</v>
@@ -2791,7 +2877,7 @@
         <v>29</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N27" s="4">
         <v>8000</v>
@@ -2814,25 +2900,25 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="18">
         <v>6</v>
       </c>
-      <c r="H28" s="4">
-        <v>128</v>
+      <c r="H28" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>19</v>
@@ -2847,7 +2933,7 @@
         <v>22</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N28" s="4">
         <v>8000</v>
@@ -2870,31 +2956,31 @@
         <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="14">
         <v>8</v>
       </c>
-      <c r="H29" s="4">
-        <v>128</v>
+      <c r="H29" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>41</v>
@@ -2903,7 +2989,7 @@
         <v>29</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N29" s="4">
         <v>10090</v>
@@ -2926,31 +3012,31 @@
         <v>17</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="14">
         <v>8</v>
       </c>
-      <c r="H30" s="4">
-        <v>128</v>
+      <c r="H30" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>41</v>
@@ -2959,7 +3045,7 @@
         <v>22</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N30" s="4">
         <v>10090</v>
@@ -2982,31 +3068,31 @@
         <v>17</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="14">
         <v>12</v>
       </c>
-      <c r="H31" s="4">
-        <v>512</v>
+      <c r="H31" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>41</v>
@@ -3015,7 +3101,7 @@
         <v>29</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N31" s="4">
         <v>10090</v>
@@ -3038,31 +3124,31 @@
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="G32" s="14">
         <v>12</v>
       </c>
-      <c r="H32" s="4">
-        <v>512</v>
+      <c r="H32" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>41</v>
@@ -3071,7 +3157,7 @@
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N32" s="4">
         <v>10090</v>
@@ -3094,31 +3180,31 @@
         <v>17</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="14">
         <v>12</v>
       </c>
-      <c r="H33" s="4">
-        <v>512</v>
+      <c r="H33" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>49</v>
@@ -3127,7 +3213,7 @@
         <v>29</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N33" s="4">
         <v>11200</v>
@@ -3150,31 +3236,31 @@
         <v>17</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="14">
         <v>12</v>
       </c>
-      <c r="H34" s="4">
-        <v>512</v>
+      <c r="H34" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>49</v>
@@ -3183,7 +3269,7 @@
         <v>22</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N34" s="4">
         <v>11200</v>
@@ -3206,23 +3292,23 @@
         <v>47</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="G35" s="4">
         <v>3</v>
       </c>
-      <c r="H35" s="4">
-        <v>128</v>
+      <c r="H35" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>31</v>
@@ -3231,13 +3317,13 @@
         <v>24</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N35" s="4">
         <v>8827</v>
@@ -3246,13 +3332,13 @@
         <v>2020</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q35" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
@@ -3260,23 +3346,23 @@
         <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" s="4">
         <v>3</v>
       </c>
-      <c r="H36" s="4">
-        <v>256</v>
+      <c r="H36" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>31</v>
@@ -3291,7 +3377,7 @@
         <v>22</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N36" s="4">
         <v>8557</v>
@@ -3300,13 +3386,13 @@
         <v>2021</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
@@ -3314,23 +3400,23 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G37" s="4">
         <v>4</v>
       </c>
-      <c r="H37" s="4">
-        <v>256</v>
+      <c r="H37" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>31</v>
@@ -3345,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N37" s="4">
         <v>8557</v>
@@ -3354,13 +3440,13 @@
         <v>2022</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q37" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
@@ -3368,23 +3454,23 @@
         <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G38" s="18">
         <v>6</v>
       </c>
-      <c r="H38" s="4">
-        <v>256</v>
+      <c r="H38" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>31</v>
@@ -3393,13 +3479,13 @@
         <v>41</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N38" s="4">
         <v>7553</v>
@@ -3408,13 +3494,13 @@
         <v>2020</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
@@ -3422,23 +3508,23 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="G39" s="4">
         <v>8</v>
       </c>
-      <c r="H39" s="4">
-        <v>256</v>
+      <c r="H39" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>31</v>
@@ -3453,7 +3539,7 @@
         <v>29</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N39" s="4">
         <v>7600</v>
@@ -3462,13 +3548,13 @@
         <v>2022</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -3476,23 +3562,25 @@
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>240</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="D40" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="G40" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H40" s="4">
-        <v>256</v>
+        <v>1000</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>31</v>
@@ -3507,22 +3595,22 @@
         <v>29</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N40" s="4">
-        <v>5124</v>
+        <v>8900</v>
       </c>
       <c r="O40" s="4">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
@@ -3530,29 +3618,31 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4">
-        <v>11</v>
+        <v>237</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="18">
+        <v>239</v>
+      </c>
+      <c r="G41" s="4">
         <v>8</v>
       </c>
       <c r="H41" s="4">
-        <v>512</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>41</v>
@@ -3561,22 +3651,22 @@
         <v>29</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N41" s="4">
-        <v>7538</v>
+        <v>10340</v>
       </c>
       <c r="O41" s="4">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="P41" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" t="s">
         <v>138</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
@@ -3584,53 +3674,53 @@
         <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4">
-        <v>11</v>
+      <c r="D42" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="G42" s="4">
-        <v>6</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1000</v>
+        <v>4</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M42" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N42" s="4">
+        <v>5124</v>
+      </c>
+      <c r="O42" s="4">
+        <v>2021</v>
+      </c>
+      <c r="P42" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N42" s="4">
-        <v>7812</v>
-      </c>
-      <c r="O42" s="4">
-        <v>2020</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>200</v>
-      </c>
       <c r="Q42" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
@@ -3638,29 +3728,29 @@
         <v>47</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4">
-        <v>11</v>
+      <c r="D43" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="4">
+        <v>141</v>
+      </c>
+      <c r="G43" s="18">
         <v>8</v>
       </c>
-      <c r="H43" s="4">
-        <v>512</v>
+      <c r="H43" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>41</v>
@@ -3669,22 +3759,22 @@
         <v>29</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="N43" s="4">
         <v>7538</v>
       </c>
       <c r="O43" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
@@ -3692,53 +3782,55 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>242</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="D44" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="18">
-        <v>6</v>
+        <v>235</v>
+      </c>
+      <c r="G44" s="4">
+        <v>8</v>
       </c>
       <c r="H44" s="4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N44" s="4">
-        <v>9720</v>
+        <v>8160</v>
       </c>
       <c r="O44" s="4">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="R44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
@@ -3746,53 +3838,53 @@
         <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="18">
-        <v>8</v>
-      </c>
-      <c r="H45" s="4">
-        <v>512</v>
+        <v>103</v>
+      </c>
+      <c r="G45" s="4">
+        <v>6</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="N45" s="4">
-        <v>7538</v>
+        <v>7812</v>
       </c>
       <c r="O45" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
@@ -3800,29 +3892,29 @@
         <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="G46" s="4">
         <v>8</v>
       </c>
-      <c r="H46" s="4">
-        <v>512</v>
+      <c r="H46" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>41</v>
@@ -3831,323 +3923,465 @@
         <v>29</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="N46" s="4">
         <v>7538</v>
       </c>
       <c r="O46" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="4">
-        <v>4</v>
-      </c>
-      <c r="H47" s="4">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="G47" s="18">
+        <v>6</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="N47" s="4">
-        <v>7700</v>
+        <v>9720</v>
       </c>
       <c r="O47" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R47" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="4">
-        <v>11</v>
+        <v>173</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="4">
-        <v>4</v>
-      </c>
-      <c r="H48" s="4">
-        <v>128</v>
+        <v>148</v>
+      </c>
+      <c r="G48" s="18">
+        <v>8</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="N48" s="4">
-        <v>7040</v>
+        <v>7538</v>
       </c>
       <c r="O48" s="4">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R48" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="4">
-        <v>9</v>
+        <v>139</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="G49" s="4">
-        <v>4</v>
-      </c>
-      <c r="H49" s="4">
-        <v>64</v>
+        <v>8</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="N49" s="4">
-        <v>5100</v>
+        <v>7538</v>
       </c>
       <c r="O49" s="4">
         <v>2022</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R49" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="4">
+        <v>8</v>
+      </c>
+      <c r="H50" s="4">
+        <v>2000</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N50" s="4">
+        <v>10290</v>
+      </c>
+      <c r="O50" s="4">
+        <v>2024</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="4">
+        <v>4</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="N51" s="4">
+        <v>7700</v>
+      </c>
+      <c r="O51" s="4">
+        <v>2022</v>
+      </c>
+      <c r="P51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="4">
+        <v>4</v>
+      </c>
+      <c r="H52" s="4">
+        <v>128</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N52" s="4">
+        <v>7040</v>
+      </c>
+      <c r="O52" s="4">
+        <v>2024</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N53" s="4">
+        <v>5100</v>
+      </c>
+      <c r="O53" s="4">
+        <v>2022</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D54" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E50" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="G54" s="4">
+        <v>4</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="4">
-        <v>4</v>
-      </c>
-      <c r="H50" s="4">
-        <v>128</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="N54" s="4">
+        <v>10200</v>
+      </c>
+      <c r="O54" s="4">
+        <v>2023</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R54" t="s">
         <v>117</v>
       </c>
-      <c r="N50" s="4">
-        <v>10200</v>
-      </c>
-      <c r="O50" s="4">
-        <v>2023</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
@@ -6960,28 +7194,43 @@
       <c r="G268" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:Q197">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Descontinuado">
-      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
+  <conditionalFormatting sqref="Q55:Q197">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Descontinuado">
+      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q55))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q55))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q268">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q1048576 Q1">
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q54">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Descontinuado">
+      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q54">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q54">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/cardapio_tms_tablet.xlsx
+++ b/cardapio_tms_tablet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF104367-8CA1-4247-97E2-04CC1C5CD700}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5495EB7-B042-4AB6-A7B4-60B5C3A0C704}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="237">
   <si>
     <t>Marca</t>
   </si>
@@ -668,9 +668,6 @@
     <t>8"</t>
   </si>
   <si>
-    <t>128GB</t>
-  </si>
-  <si>
     <t>10.4"</t>
   </si>
   <si>
@@ -683,9 +680,6 @@
     <t>12.4"</t>
   </si>
   <si>
-    <t>512GB</t>
-  </si>
-  <si>
     <t>14.6"</t>
   </si>
   <si>
@@ -695,18 +689,9 @@
     <t>8.7"</t>
   </si>
   <si>
-    <t>64GB</t>
-  </si>
-  <si>
     <t>12.7"</t>
   </si>
   <si>
-    <t>32GB</t>
-  </si>
-  <si>
-    <t>256GB</t>
-  </si>
-  <si>
     <t>12.9"</t>
   </si>
   <si>
@@ -723,12 +708,6 @@
   </si>
   <si>
     <t>8.3"</t>
-  </si>
-  <si>
-    <t>1TB</t>
-  </si>
-  <si>
-    <t>16GB</t>
   </si>
   <si>
     <t>iPad Pro 13 (2024)</t>
@@ -914,31 +893,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4F4F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -1039,8 +994,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="B1:B268"/>
@@ -1049,10 +1008,10 @@
     <tableColumn id="1" xr3:uid="{91A366A6-E040-470A-8A78-E4CD71B267F1}" name="Marca"/>
     <tableColumn id="2" xr3:uid="{BD6653F6-2C6B-4C25-8651-1E48BA7C8EF8}" name="Nome comercial"/>
     <tableColumn id="3" xr3:uid="{BE82534C-6976-446A-A477-B348037A1554}" name="Modelo"/>
-    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -1369,7 +1328,7 @@
   <dimension ref="A1:R268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1339,7 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
@@ -1458,7 +1417,7 @@
         <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>124</v>
@@ -1469,8 +1428,8 @@
       <c r="G2" s="18">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>221</v>
+      <c r="H2" s="4">
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>19</v>
@@ -1514,7 +1473,7 @@
         <v>185</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>53</v>
@@ -1525,8 +1484,8 @@
       <c r="G3" s="14">
         <v>3</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>221</v>
+      <c r="H3" s="4">
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>19</v>
@@ -1570,7 +1529,7 @@
         <v>164</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>161</v>
@@ -1581,8 +1540,8 @@
       <c r="G4" s="14">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>221</v>
+      <c r="H4" s="4">
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
@@ -1626,7 +1585,7 @@
         <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
@@ -1637,8 +1596,8 @@
       <c r="G5" s="14">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>221</v>
+      <c r="H5" s="4">
+        <v>32</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>19</v>
@@ -1682,7 +1641,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>124</v>
@@ -1693,8 +1652,8 @@
       <c r="G6" s="14">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>221</v>
+      <c r="H6" s="4">
+        <v>32</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
@@ -1738,7 +1697,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>124</v>
@@ -1749,8 +1708,8 @@
       <c r="G7" s="14">
         <v>3</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>221</v>
+      <c r="H7" s="4">
+        <v>32</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>19</v>
@@ -1794,7 +1753,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>43</v>
@@ -1805,8 +1764,8 @@
       <c r="G8" s="14">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>219</v>
+      <c r="H8" s="4">
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>19</v>
@@ -1848,7 +1807,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>43</v>
@@ -1859,8 +1818,8 @@
       <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>219</v>
+      <c r="H9" s="4">
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
@@ -1902,7 +1861,7 @@
         <v>108</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>54</v>
@@ -1913,8 +1872,8 @@
       <c r="G10" s="18">
         <v>4</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>219</v>
+      <c r="H10" s="4">
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>19</v>
@@ -1956,7 +1915,7 @@
         <v>111</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -1967,8 +1926,8 @@
       <c r="G11" s="18">
         <v>4</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>219</v>
+      <c r="H11" s="4">
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>19</v>
@@ -2021,8 +1980,8 @@
       <c r="G12" s="4">
         <v>3</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>230</v>
+      <c r="H12" s="4">
+        <v>16</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>52</v>
@@ -2077,8 +2036,8 @@
       <c r="G13" s="14">
         <v>4</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>210</v>
+      <c r="H13" s="4">
+        <v>128</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>19</v>
@@ -2133,8 +2092,8 @@
       <c r="G14" s="4">
         <v>6</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>210</v>
+      <c r="H14" s="4">
+        <v>128</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>19</v>
@@ -2178,7 +2137,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>38</v>
@@ -2189,8 +2148,8 @@
       <c r="G15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>210</v>
+      <c r="H15" s="4">
+        <v>128</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>19</v>
@@ -2234,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>36</v>
@@ -2245,8 +2204,8 @@
       <c r="G16" s="14">
         <v>4</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>210</v>
+      <c r="H16" s="4">
+        <v>128</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>19</v>
@@ -2290,7 +2249,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>36</v>
@@ -2301,8 +2260,8 @@
       <c r="G17" s="14">
         <v>4</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>210</v>
+      <c r="H17" s="4">
+        <v>128</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>19</v>
@@ -2346,7 +2305,7 @@
         <v>187</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>32</v>
@@ -2357,8 +2316,8 @@
       <c r="G18" s="18">
         <v>6</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>210</v>
+      <c r="H18" s="4">
+        <v>128</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>19</v>
@@ -2402,7 +2361,7 @@
         <v>191</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
@@ -2413,8 +2372,8 @@
       <c r="G19" s="18">
         <v>6</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>210</v>
+      <c r="H19" s="4">
+        <v>128</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>19</v>
@@ -2458,7 +2417,7 @@
         <v>166</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>35</v>
@@ -2469,8 +2428,8 @@
       <c r="G20" s="14">
         <v>6</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>210</v>
+      <c r="H20" s="4">
+        <v>128</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>19</v>
@@ -2514,7 +2473,7 @@
         <v>189</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
@@ -2525,8 +2484,8 @@
       <c r="G21" s="18">
         <v>6</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>210</v>
+      <c r="H21" s="4">
+        <v>128</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>19</v>
@@ -2570,7 +2529,7 @@
         <v>128</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>40</v>
@@ -2581,8 +2540,8 @@
       <c r="G22" s="14">
         <v>8</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>222</v>
+      <c r="H22" s="4">
+        <v>256</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>19</v>
@@ -2626,7 +2585,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>40</v>
@@ -2637,8 +2596,8 @@
       <c r="G23" s="18">
         <v>8</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>222</v>
+      <c r="H23" s="4">
+        <v>256</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>19</v>
@@ -2682,7 +2641,7 @@
         <v>133</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>40</v>
@@ -2693,8 +2652,8 @@
       <c r="G24" s="14">
         <v>8</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>210</v>
+      <c r="H24" s="4">
+        <v>128</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>19</v>
@@ -2738,7 +2697,7 @@
         <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>75</v>
@@ -2749,8 +2708,8 @@
       <c r="G25" s="14">
         <v>8</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>210</v>
+      <c r="H25" s="4">
+        <v>128</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>19</v>
@@ -2794,7 +2753,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>75</v>
@@ -2805,8 +2764,8 @@
       <c r="G26" s="16">
         <v>8</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>210</v>
+      <c r="H26" s="15">
+        <v>128</v>
       </c>
       <c r="I26" s="15" t="s">
         <v>19</v>
@@ -2850,7 +2809,7 @@
         <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>44</v>
@@ -2861,8 +2820,8 @@
       <c r="G27" s="18">
         <v>6</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>210</v>
+      <c r="H27" s="4">
+        <v>128</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>19</v>
@@ -2906,7 +2865,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>44</v>
@@ -2917,8 +2876,8 @@
       <c r="G28" s="18">
         <v>6</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>210</v>
+      <c r="H28" s="4">
+        <v>128</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>19</v>
@@ -2962,7 +2921,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>44</v>
@@ -2973,8 +2932,8 @@
       <c r="G29" s="14">
         <v>8</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>210</v>
+      <c r="H29" s="4">
+        <v>128</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>19</v>
@@ -3018,7 +2977,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>44</v>
@@ -3029,8 +2988,8 @@
       <c r="G30" s="14">
         <v>8</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>210</v>
+      <c r="H30" s="4">
+        <v>128</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>19</v>
@@ -3074,7 +3033,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>75</v>
@@ -3085,8 +3044,8 @@
       <c r="G31" s="14">
         <v>12</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>215</v>
+      <c r="H31" s="4">
+        <v>512</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>19</v>
@@ -3130,7 +3089,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>75</v>
@@ -3141,8 +3100,8 @@
       <c r="G32" s="14">
         <v>12</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>215</v>
+      <c r="H32" s="4">
+        <v>512</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>19</v>
@@ -3186,7 +3145,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>42</v>
@@ -3197,8 +3156,8 @@
       <c r="G33" s="14">
         <v>12</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>215</v>
+      <c r="H33" s="4">
+        <v>512</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>19</v>
@@ -3242,7 +3201,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>42</v>
@@ -3253,8 +3212,8 @@
       <c r="G34" s="14">
         <v>12</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>215</v>
+      <c r="H34" s="4">
+        <v>512</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>19</v>
@@ -3296,7 +3255,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>193</v>
@@ -3307,8 +3266,8 @@
       <c r="G35" s="4">
         <v>3</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>210</v>
+      <c r="H35" s="4">
+        <v>128</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>31</v>
@@ -3350,7 +3309,7 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>48</v>
@@ -3361,8 +3320,8 @@
       <c r="G36" s="4">
         <v>3</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>222</v>
+      <c r="H36" s="4">
+        <v>256</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>31</v>
@@ -3404,7 +3363,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>50</v>
@@ -3415,8 +3374,8 @@
       <c r="G37" s="4">
         <v>4</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>222</v>
+      <c r="H37" s="4">
+        <v>256</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>31</v>
@@ -3458,7 +3417,7 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>50</v>
@@ -3469,8 +3428,8 @@
       <c r="G38" s="18">
         <v>6</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>222</v>
+      <c r="H38" s="4">
+        <v>256</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>31</v>
@@ -3512,7 +3471,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>147</v>
@@ -3523,8 +3482,8 @@
       <c r="G39" s="4">
         <v>8</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>222</v>
+      <c r="H39" s="4">
+        <v>256</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>31</v>
@@ -3562,19 +3521,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G40" s="4">
         <v>8</v>
@@ -3604,7 +3563,7 @@
         <v>2024</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>46</v>
@@ -3618,19 +3577,19 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G41" s="4">
         <v>8</v>
@@ -3660,7 +3619,7 @@
         <v>2024</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>46</v>
@@ -3678,7 +3637,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>51</v>
@@ -3689,8 +3648,8 @@
       <c r="G42" s="4">
         <v>4</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>222</v>
+      <c r="H42" s="4">
+        <v>256</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>31</v>
@@ -3732,7 +3691,7 @@
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>140</v>
@@ -3743,8 +3702,8 @@
       <c r="G43" s="18">
         <v>8</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>215</v>
+      <c r="H43" s="4">
+        <v>512</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>31</v>
@@ -3782,19 +3741,19 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G44" s="4">
         <v>8</v>
@@ -3824,7 +3783,7 @@
         <v>2024</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>46</v>
@@ -3842,7 +3801,7 @@
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>197</v>
@@ -3853,8 +3812,8 @@
       <c r="G45" s="4">
         <v>6</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>229</v>
+      <c r="H45" s="4">
+        <v>1000</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>31</v>
@@ -3896,7 +3855,7 @@
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>147</v>
@@ -3907,8 +3866,8 @@
       <c r="G46" s="4">
         <v>8</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>215</v>
+      <c r="H46" s="4">
+        <v>512</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>31</v>
@@ -3950,7 +3909,7 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>197</v>
@@ -3961,8 +3920,8 @@
       <c r="G47" s="18">
         <v>6</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>229</v>
+      <c r="H47" s="4">
+        <v>1000</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>31</v>
@@ -4004,7 +3963,7 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>147</v>
@@ -4015,8 +3974,8 @@
       <c r="G48" s="18">
         <v>8</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>215</v>
+      <c r="H48" s="4">
+        <v>512</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>31</v>
@@ -4058,7 +4017,7 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>140</v>
@@ -4069,8 +4028,8 @@
       <c r="G49" s="4">
         <v>8</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>215</v>
+      <c r="H49" s="4">
+        <v>512</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>31</v>
@@ -4108,19 +4067,19 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G50" s="4">
         <v>8</v>
@@ -4150,7 +4109,7 @@
         <v>2024</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>46</v>
@@ -4170,7 +4129,7 @@
         <v>152</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>153</v>
@@ -4181,8 +4140,8 @@
       <c r="G51" s="4">
         <v>4</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>219</v>
+      <c r="H51" s="4">
+        <v>64</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>19</v>
@@ -4220,13 +4179,13 @@
         <v>208</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>69</v>
@@ -4282,7 +4241,7 @@
         <v>156</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>34</v>
@@ -4293,8 +4252,8 @@
       <c r="G53" s="4">
         <v>4</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>219</v>
+      <c r="H53" s="4">
+        <v>64</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>19</v>
@@ -4338,7 +4297,7 @@
         <v>113</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>114</v>
@@ -4349,8 +4308,8 @@
       <c r="G54" s="4">
         <v>4</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>210</v>
+      <c r="H54" s="4">
+        <v>128</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>19</v>
@@ -7194,43 +7153,28 @@
       <c r="G268" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q55:Q197">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Descontinuado">
-      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q55))))</formula>
+  <conditionalFormatting sqref="Q2:Q197">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Descontinuado">
+      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q55))))</formula>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q55))))</formula>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q268">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q1048576 Q1">
-    <cfRule type="containsText" dxfId="3" priority="12" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q54">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Descontinuado">
-      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q54">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q54">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/cardapio_tms_tablet.xlsx
+++ b/cardapio_tms_tablet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5495EB7-B042-4AB6-A7B4-60B5C3A0C704}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2538F43D-75A8-430B-83E0-4314D47AD192}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="233">
   <si>
     <t>Marca</t>
   </si>
@@ -665,60 +665,15 @@
     <t>Lenovo</t>
   </si>
   <si>
-    <t>8"</t>
-  </si>
-  <si>
-    <t>10.4"</t>
-  </si>
-  <si>
     <t>Tab M11/ Tab K11</t>
   </si>
   <si>
-    <t>11"</t>
-  </si>
-  <si>
-    <t>12.4"</t>
-  </si>
-  <si>
-    <t>14.6"</t>
-  </si>
-  <si>
-    <t>10.9"</t>
-  </si>
-  <si>
-    <t>8.7"</t>
-  </si>
-  <si>
-    <t>12.7"</t>
-  </si>
-  <si>
-    <t>12.9"</t>
-  </si>
-  <si>
-    <t>10.1"</t>
-  </si>
-  <si>
-    <t>9"</t>
-  </si>
-  <si>
-    <t>10.5"</t>
-  </si>
-  <si>
-    <t>10.2"</t>
-  </si>
-  <si>
-    <t>8.3"</t>
-  </si>
-  <si>
     <t>iPad Pro 13 (2024)</t>
   </si>
   <si>
     <t>A2926</t>
   </si>
   <si>
-    <t>13"</t>
-  </si>
-  <si>
     <t>Apple M4</t>
   </si>
   <si>
@@ -747,6 +702,39 @@
   </si>
   <si>
     <t>A2837</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>10.1</t>
+  </si>
+  <si>
+    <t>12.7</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1316,7 @@
   <dimension ref="A1:R268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1405,7 @@
         <v>123</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>124</v>
@@ -1473,7 +1461,7 @@
         <v>185</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>53</v>
@@ -1529,7 +1517,7 @@
         <v>164</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>161</v>
@@ -1585,7 +1573,7 @@
         <v>160</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>161</v>
@@ -1641,7 +1629,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>124</v>
@@ -1697,7 +1685,7 @@
         <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>124</v>
@@ -1753,7 +1741,7 @@
         <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>43</v>
@@ -1807,7 +1795,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>43</v>
@@ -1860,8 +1848,8 @@
       <c r="C10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>212</v>
+      <c r="D10" s="4">
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>54</v>
@@ -1914,8 +1902,8 @@
       <c r="C11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>212</v>
+      <c r="D11" s="4">
+        <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -1968,8 +1956,8 @@
       <c r="C12" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>209</v>
+      <c r="D12" s="4">
+        <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>
@@ -2024,8 +2012,8 @@
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>209</v>
+      <c r="D13" s="4">
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>182</v>
@@ -2080,8 +2068,8 @@
       <c r="C14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>209</v>
+      <c r="D14" s="4">
+        <v>8</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>60</v>
@@ -2137,7 +2125,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>38</v>
@@ -2193,7 +2181,7 @@
         <v>121</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>36</v>
@@ -2249,7 +2237,7 @@
         <v>119</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>36</v>
@@ -2304,8 +2292,8 @@
       <c r="C18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>212</v>
+      <c r="D18" s="4">
+        <v>11</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>32</v>
@@ -2360,8 +2348,8 @@
       <c r="C19" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>212</v>
+      <c r="D19" s="4">
+        <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
@@ -2417,7 +2405,7 @@
         <v>166</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>35</v>
@@ -2473,7 +2461,7 @@
         <v>189</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
@@ -2528,8 +2516,8 @@
       <c r="C22" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>212</v>
+      <c r="D22" s="4">
+        <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>40</v>
@@ -2585,7 +2573,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>40</v>
@@ -2641,7 +2629,7 @@
         <v>133</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>40</v>
@@ -2696,8 +2684,8 @@
       <c r="C25" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>212</v>
+      <c r="D25" s="4">
+        <v>11</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>75</v>
@@ -2752,8 +2740,8 @@
       <c r="C26" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>212</v>
+      <c r="D26" s="15">
+        <v>11</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>75</v>
@@ -2809,7 +2797,7 @@
         <v>95</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>44</v>
@@ -2865,7 +2853,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>44</v>
@@ -2921,7 +2909,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>44</v>
@@ -2977,7 +2965,7 @@
         <v>97</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>44</v>
@@ -3033,7 +3021,7 @@
         <v>85</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>75</v>
@@ -3089,7 +3077,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>75</v>
@@ -3145,7 +3133,7 @@
         <v>89</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>42</v>
@@ -3201,7 +3189,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>42</v>
@@ -3255,7 +3243,7 @@
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>193</v>
@@ -3309,7 +3297,7 @@
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>48</v>
@@ -3363,7 +3351,7 @@
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>50</v>
@@ -3417,7 +3405,7 @@
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>50</v>
@@ -3471,7 +3459,7 @@
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>147</v>
@@ -3521,19 +3509,19 @@
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>212</v>
+        <v>219</v>
+      </c>
+      <c r="D40" s="4">
+        <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G40" s="4">
         <v>8</v>
@@ -3563,7 +3551,7 @@
         <v>2024</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q40" s="4" t="s">
         <v>46</v>
@@ -3577,19 +3565,19 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>226</v>
+        <v>216</v>
+      </c>
+      <c r="D41" s="4">
+        <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>140</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G41" s="4">
         <v>8</v>
@@ -3619,7 +3607,7 @@
         <v>2024</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q41" s="4" t="s">
         <v>46</v>
@@ -3637,7 +3625,7 @@
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>51</v>
@@ -3690,8 +3678,8 @@
         <v>145</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>212</v>
+      <c r="D43" s="4">
+        <v>11</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>140</v>
@@ -3741,19 +3729,19 @@
         <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D44" s="4">
+        <v>11</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="F44" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G44" s="4">
         <v>8</v>
@@ -3783,7 +3771,7 @@
         <v>2024</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="4" t="s">
         <v>46</v>
@@ -3800,8 +3788,8 @@
         <v>202</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>212</v>
+      <c r="D45" s="4">
+        <v>11</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>197</v>
@@ -3854,8 +3842,8 @@
         <v>176</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>212</v>
+      <c r="D46" s="4">
+        <v>11</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>147</v>
@@ -3909,7 +3897,7 @@
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>197</v>
@@ -3963,7 +3951,7 @@
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>147</v>
@@ -4017,7 +4005,7 @@
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>140</v>
@@ -4067,19 +4055,19 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="D50" s="4">
+        <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="G50" s="4">
         <v>8</v>
@@ -4109,7 +4097,7 @@
         <v>2024</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Q50" s="4" t="s">
         <v>46</v>
@@ -4129,7 +4117,7 @@
         <v>152</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>153</v>
@@ -4179,13 +4167,13 @@
         <v>208</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>212</v>
+      <c r="D52" s="4">
+        <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>69</v>
@@ -4240,8 +4228,8 @@
       <c r="C53" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>220</v>
+      <c r="D53" s="4">
+        <v>9</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>34</v>
@@ -4297,7 +4285,7 @@
         <v>113</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>114</v>

--- a/cardapio_tms_tablet.xlsx
+++ b/cardapio_tms_tablet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="258" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2538F43D-75A8-430B-83E0-4314D47AD192}"/>
+  <xr:revisionPtr revIDLastSave="259" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B3DB2F-D5B6-4D07-996E-E649338AC345}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="242">
   <si>
     <t>Marca</t>
   </si>
@@ -735,6 +735,33 @@
   </si>
   <si>
     <t>12.7</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S10 Plus</t>
+  </si>
+  <si>
+    <t>SM-X820</t>
+  </si>
+  <si>
+    <t>12.4"</t>
+  </si>
+  <si>
+    <t>MediaTek Dimensity 9300 Plus</t>
+  </si>
+  <si>
+    <t>Octa-Core 2.5GHZ</t>
+  </si>
+  <si>
+    <t>Galaxy Tab S10 Ultra</t>
+  </si>
+  <si>
+    <t>SM-X920</t>
+  </si>
+  <si>
+    <t>14.6"</t>
+  </si>
+  <si>
+    <t>Octa-Core 2.5GHz</t>
   </si>
 </sst>
 </file>
@@ -881,7 +908,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF4F4F"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -982,12 +1033,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="B1:B268"/>
@@ -996,10 +1043,10 @@
     <tableColumn id="1" xr3:uid="{91A366A6-E040-470A-8A78-E4CD71B267F1}" name="Marca"/>
     <tableColumn id="2" xr3:uid="{BD6653F6-2C6B-4C25-8651-1E48BA7C8EF8}" name="Nome comercial"/>
     <tableColumn id="3" xr3:uid="{BE82534C-6976-446A-A477-B348037A1554}" name="Modelo"/>
-    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="10"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -1315,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B361F2-41E2-4CDE-878E-4F9DDE4002FA}">
   <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4331,42 +4378,116 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G55" s="4">
+        <v>12</v>
+      </c>
+      <c r="H55" s="4">
+        <v>512</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N55" s="4">
+        <v>10090</v>
+      </c>
+      <c r="O55" s="4">
+        <v>2024</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R55" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" s="4">
+        <v>16</v>
+      </c>
+      <c r="H56" s="4">
+        <v>1000</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="4">
+        <v>11200</v>
+      </c>
+      <c r="O56" s="4">
+        <v>2024</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R56" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
@@ -7141,28 +7262,43 @@
       <c r="G268" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:Q197">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Descontinuado">
+  <conditionalFormatting sqref="Q2:Q54 Q57:Q197">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q268">
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q1048576 Q1">
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q55:Q56">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Descontinuado">
+      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q55:Q56">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sucessor recém lançado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q55))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q55:Q56">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sucessor homologado">
+      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/cardapio_tms_tablet.xlsx
+++ b/cardapio_tms_tablet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B3DB2F-D5B6-4D07-996E-E649338AC345}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{184318C6-D2E2-4DEF-BB8C-9B8AEAB10E11}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="240">
   <si>
     <t>Marca</t>
   </si>
@@ -743,9 +743,6 @@
     <t>SM-X820</t>
   </si>
   <si>
-    <t>12.4"</t>
-  </si>
-  <si>
     <t>MediaTek Dimensity 9300 Plus</t>
   </si>
   <si>
@@ -756,9 +753,6 @@
   </si>
   <si>
     <t>SM-X920</t>
-  </si>
-  <si>
-    <t>14.6"</t>
   </si>
   <si>
     <t>Octa-Core 2.5GHz</t>
@@ -908,31 +902,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF4F4F"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -1033,8 +1003,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
     <sortCondition ref="B1:B268"/>
@@ -1043,10 +1017,10 @@
     <tableColumn id="1" xr3:uid="{91A366A6-E040-470A-8A78-E4CD71B267F1}" name="Marca"/>
     <tableColumn id="2" xr3:uid="{BD6653F6-2C6B-4C25-8651-1E48BA7C8EF8}" name="Nome comercial"/>
     <tableColumn id="3" xr3:uid="{BE82534C-6976-446A-A477-B348037A1554}" name="Modelo"/>
-    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{FD9AE693-CCEC-401B-AB4C-FD945DEDFAF0}" name="Tela" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{55CA6666-33FA-410A-9F38-B3C7CFCA6B94}" name="Chipset"/>
     <tableColumn id="6" xr3:uid="{DC303884-0DD6-4AF7-B940-DF622B7B3F54}" name="Processador"/>
-    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{704A4529-6D54-4C4E-A250-225569CB3AA3}" name="RAM (GB)" dataDxfId="6"/>
     <tableColumn id="8" xr3:uid="{175115F1-B4B4-4F03-93E4-EA8D3167CEF9}" name="Armazenamento Interno"/>
     <tableColumn id="9" xr3:uid="{622F2860-5B3F-47FB-9601-28717CCECBA4}" name="Armazenamento Externo"/>
     <tableColumn id="10" xr3:uid="{4F9AFEE0-D574-4D12-9D53-BA67999CED34}" name="Câmera Traseira"/>
@@ -1363,7 +1337,7 @@
   <dimension ref="A1:R268"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4388,13 +4362,13 @@
         <v>234</v>
       </c>
       <c r="D55" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="G55" s="4">
         <v>12</v>
@@ -4438,19 +4412,19 @@
         <v>17</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="G56" s="4">
         <v>16</v>
@@ -7262,43 +7236,28 @@
       <c r="G268" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q2:Q54 Q57:Q197">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Descontinuado">
+  <conditionalFormatting sqref="Q2:Q197">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q2))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q268">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Sucessor recém lançado">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="containsText" text="Sucessor recém lançado">
       <formula>NOT(ISERROR(SEARCH("Sucessor recém lançado",Q198)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="14" operator="containsText" text="Sucessor homologado">
+    <cfRule type="containsText" dxfId="1" priority="14" operator="containsText" text="Sucessor homologado">
       <formula>NOT(ISERROR(SEARCH("Sucessor homologado",Q198)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q198:Q1048576 Q1">
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Descontinuado">
+    <cfRule type="containsText" dxfId="0" priority="15" operator="containsText" text="Descontinuado">
       <formula>NOT(ISERROR(SEARCH("Descontinuado",Q1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q55:Q56">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Descontinuado">
-      <formula>NOT(ISERROR(SEARCH(("Descontinuado"),(Q55))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q55:Q56">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Sucessor recém lançado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor recém lançado"),(Q55))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q55:Q56">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Sucessor homologado">
-      <formula>NOT(ISERROR(SEARCH(("Sucessor homologado"),(Q55))))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/cardapio_tms_tablet.xlsx
+++ b/cardapio_tms_tablet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0493a9bad3d9ddea/Documentos/GitHub/cardapioTMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{184318C6-D2E2-4DEF-BB8C-9B8AEAB10E11}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{4E87397C-CE62-4AAA-8BD4-B529A4778686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F294D3D-494F-4B69-A69A-3D0E01811086}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{F9DF0CE3-70CF-4EDF-AB07-95DC6824B797}"/>
   </bookViews>
@@ -1011,7 +1011,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}" name="Tabela2" displayName="Tabela2" ref="A1:R268" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8">
   <autoFilter ref="A1:R268" xr:uid="{D62CD5D4-60BA-4163-BD16-7CE0E894A86F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R268">
-    <sortCondition ref="B1:B268"/>
+    <sortCondition ref="A1:A268"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{91A366A6-E040-470A-8A78-E4CD71B267F1}" name="Marca"/>
@@ -1336,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B361F2-41E2-4CDE-878E-4F9DDE4002FA}">
   <dimension ref="A1:R268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
@@ -1417,969 +1417,953 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="18">
+        <v>194</v>
+      </c>
+      <c r="G2" s="4">
         <v>3</v>
       </c>
       <c r="H2" s="4">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="N2" s="4">
-        <v>7040</v>
+        <v>8827</v>
       </c>
       <c r="O2" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="14">
+        <v>135</v>
+      </c>
+      <c r="G3" s="4">
         <v>3</v>
       </c>
       <c r="H3" s="4">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="N3" s="4">
-        <v>7040</v>
+        <v>8557</v>
       </c>
       <c r="O3" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>164</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="14">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4</v>
       </c>
       <c r="H4" s="4">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="N4" s="4">
-        <v>5100</v>
+        <v>8557</v>
       </c>
       <c r="O4" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="14">
-        <v>3</v>
+        <v>201</v>
+      </c>
+      <c r="G5" s="18">
+        <v>6</v>
       </c>
       <c r="H5" s="4">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="N5" s="4">
-        <v>5100</v>
+        <v>7553</v>
       </c>
       <c r="O5" s="4">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>171</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="14">
-        <v>4</v>
+        <v>148</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
       </c>
       <c r="H6" s="4">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="N6" s="4">
-        <v>7040</v>
+        <v>7600</v>
       </c>
       <c r="O6" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
+      </c>
+      <c r="D7" s="4">
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="14">
-        <v>3</v>
+        <v>217</v>
+      </c>
+      <c r="G7" s="4">
+        <v>8</v>
       </c>
       <c r="H7" s="4">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="N7" s="4">
-        <v>7040</v>
+        <v>8900</v>
       </c>
       <c r="O7" s="4">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="D8" s="4">
+        <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" s="14">
-        <v>4</v>
+        <v>217</v>
+      </c>
+      <c r="G8" s="4">
+        <v>8</v>
       </c>
       <c r="H8" s="4">
-        <v>64</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="N8" s="4">
-        <v>5000</v>
+        <v>10340</v>
       </c>
       <c r="O8" s="4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="14">
+        <v>179</v>
+      </c>
+      <c r="G9" s="4">
         <v>4</v>
       </c>
       <c r="H9" s="4">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="N9" s="4">
-        <v>5000</v>
+        <v>5124</v>
       </c>
       <c r="O9" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="G10" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10" s="4">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="N10" s="4">
-        <v>7040</v>
+        <v>7538</v>
       </c>
       <c r="O10" s="4">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="D11" s="4">
         <v>11</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="18">
-        <v>4</v>
+        <v>213</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
       </c>
       <c r="H11" s="4">
-        <v>64</v>
+        <v>2000</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="N11" s="4">
-        <v>7040</v>
+        <v>8160</v>
       </c>
       <c r="O11" s="4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="G12" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H12" s="4">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="N12" s="4">
-        <v>4450</v>
+        <v>7812</v>
       </c>
       <c r="O12" s="4">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="4">
         <v>8</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="14">
-        <v>4</v>
-      </c>
       <c r="H13" s="4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="N13" s="4">
-        <v>5050</v>
+        <v>7538</v>
       </c>
       <c r="O13" s="4">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="R13" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="4">
-        <v>8</v>
+        <v>196</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>60</v>
+        <v>197</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="4">
+        <v>55</v>
+      </c>
+      <c r="G14" s="18">
         <v>6</v>
       </c>
       <c r="H14" s="4">
-        <v>128</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="N14" s="4">
-        <v>5050</v>
+        <v>9720</v>
       </c>
       <c r="O14" s="4">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="R14" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>65</v>
+        <v>148</v>
+      </c>
+      <c r="G15" s="18">
+        <v>8</v>
       </c>
       <c r="H15" s="4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="N15" s="4">
-        <v>7040</v>
+        <v>7538</v>
       </c>
       <c r="O15" s="4">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="14">
-        <v>4</v>
+        <v>141</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8</v>
       </c>
       <c r="H16" s="4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="N16" s="4">
-        <v>7040</v>
+        <v>7538</v>
       </c>
       <c r="O16" s="4">
         <v>2022</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R16" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="D17" s="4">
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="14">
-        <v>4</v>
+        <v>213</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8</v>
       </c>
       <c r="H17" s="4">
-        <v>128</v>
+        <v>2000</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="N17" s="4">
-        <v>7040</v>
+        <v>10290</v>
       </c>
       <c r="O17" s="4">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R17" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
+        <v>152</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="18">
-        <v>6</v>
+        <v>109</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="N18" s="4">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="O18" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="D19" s="4">
         <v>11</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="18">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
       </c>
       <c r="H19" s="4">
         <v>128</v>
@@ -2388,57 +2372,57 @@
         <v>19</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="N19" s="4">
-        <v>8000</v>
+        <v>7040</v>
       </c>
       <c r="O19" s="4">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>225</v>
+        <v>156</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="14">
-        <v>6</v>
+        <v>125</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
       </c>
       <c r="H20" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>19</v>
@@ -2447,51 +2431,51 @@
         <v>24</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="N20" s="4">
-        <v>10090</v>
+        <v>5100</v>
       </c>
       <c r="O20" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>189</v>
+        <v>113</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="18">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="G21" s="4">
+        <v>4</v>
       </c>
       <c r="H21" s="4">
         <v>128</v>
@@ -2500,31 +2484,31 @@
         <v>19</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N21" s="4">
-        <v>10090</v>
+        <v>10200</v>
       </c>
       <c r="O21" s="4">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="R21" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
@@ -2532,43 +2516,43 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="4">
-        <v>11</v>
+        <v>123</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="14">
-        <v>8</v>
+        <v>125</v>
+      </c>
+      <c r="G22" s="18">
+        <v>3</v>
       </c>
       <c r="H22" s="4">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="N22" s="4">
-        <v>8000</v>
+        <v>7040</v>
       </c>
       <c r="O22" s="4">
         <v>2022</v>
@@ -2580,7 +2564,7 @@
         <v>23</v>
       </c>
       <c r="R22" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -2588,55 +2572,55 @@
         <v>17</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G23" s="18">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="G23" s="14">
+        <v>3</v>
       </c>
       <c r="H23" s="4">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="N23" s="4">
-        <v>10090</v>
+        <v>7040</v>
       </c>
       <c r="O23" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
@@ -2644,55 +2628,55 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G24" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H24" s="4">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="N24" s="4">
-        <v>11200</v>
+        <v>5100</v>
       </c>
       <c r="O24" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R24" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
@@ -2700,111 +2684,111 @@
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="4">
-        <v>11</v>
+        <v>160</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="G25" s="14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H25" s="4">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="N25" s="4">
-        <v>8400</v>
+        <v>5100</v>
       </c>
       <c r="O25" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R25" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="15">
-        <v>11</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="16">
-        <v>8</v>
-      </c>
-      <c r="H26" s="15">
-        <v>128</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="B26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="14">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4">
+        <v>32</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="L26" s="15" t="s">
+      <c r="J26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" s="17">
-        <v>8400</v>
-      </c>
-      <c r="O26" s="17">
-        <v>2023</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="15" t="s">
-        <v>45</v>
+      <c r="M26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="4">
+        <v>7040</v>
+      </c>
+      <c r="O26" s="4">
+        <v>2021</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="R26" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
@@ -2812,25 +2796,25 @@
         <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="18">
-        <v>6</v>
+        <v>125</v>
+      </c>
+      <c r="G27" s="14">
+        <v>3</v>
       </c>
       <c r="H27" s="4">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>19</v>
@@ -2839,28 +2823,28 @@
         <v>24</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="N27" s="4">
-        <v>8000</v>
+        <v>7040</v>
       </c>
       <c r="O27" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -2868,25 +2852,25 @@
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="18">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="G28" s="14">
+        <v>4</v>
       </c>
       <c r="H28" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>19</v>
@@ -2895,16 +2879,14 @@
         <v>24</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>93</v>
-      </c>
+      <c r="M28" s="4"/>
       <c r="N28" s="4">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="O28" s="4">
         <v>2023</v>
@@ -2916,7 +2898,7 @@
         <v>45</v>
       </c>
       <c r="R28" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -2924,43 +2906,41 @@
         <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="G29" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H29" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M29" s="4"/>
       <c r="N29" s="4">
-        <v>10090</v>
+        <v>5000</v>
       </c>
       <c r="O29" s="4">
         <v>2023</v>
@@ -2972,7 +2952,7 @@
         <v>45</v>
       </c>
       <c r="R29" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
@@ -2980,43 +2960,41 @@
         <v>17</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>225</v>
+        <v>108</v>
+      </c>
+      <c r="D30" s="4">
+        <v>11</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="14">
-        <v>8</v>
+        <v>109</v>
+      </c>
+      <c r="G30" s="18">
+        <v>4</v>
       </c>
       <c r="H30" s="4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>93</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="M30" s="4"/>
       <c r="N30" s="4">
-        <v>10090</v>
+        <v>7040</v>
       </c>
       <c r="O30" s="4">
         <v>2023</v>
@@ -3028,7 +3006,7 @@
         <v>45</v>
       </c>
       <c r="R30" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
@@ -3036,43 +3014,41 @@
         <v>17</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>225</v>
+        <v>111</v>
+      </c>
+      <c r="D31" s="4">
+        <v>11</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="14">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="G31" s="18">
+        <v>4</v>
       </c>
       <c r="H31" s="4">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="M31" s="4"/>
       <c r="N31" s="4">
-        <v>10090</v>
+        <v>7040</v>
       </c>
       <c r="O31" s="4">
         <v>2023</v>
@@ -3084,7 +3060,7 @@
         <v>45</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -3092,55 +3068,55 @@
         <v>17</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>225</v>
+        <v>204</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="14">
-        <v>12</v>
+        <v>205</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
       </c>
       <c r="H32" s="4">
-        <v>512</v>
+        <v>16</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="N32" s="4">
-        <v>10090</v>
+        <v>4450</v>
       </c>
       <c r="O32" s="4">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
@@ -3148,55 +3124,55 @@
         <v>17</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>226</v>
+        <v>181</v>
+      </c>
+      <c r="D33" s="4">
+        <v>8</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="G33" s="14">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H33" s="4">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="N33" s="4">
-        <v>11200</v>
+        <v>5050</v>
       </c>
       <c r="O33" s="4">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="R33" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
@@ -3204,577 +3180,591 @@
         <v>17</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>226</v>
+        <v>59</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="14">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="G34" s="4">
+        <v>6</v>
       </c>
       <c r="H34" s="4">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="N34" s="4">
-        <v>11200</v>
+        <v>5050</v>
       </c>
       <c r="O34" s="4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G35" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H35" s="4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>195</v>
+        <v>41</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="N35" s="4">
-        <v>8827</v>
+        <v>10090</v>
       </c>
       <c r="O35" s="4">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="R35" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="D36" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="G36" s="4">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H36" s="4">
-        <v>256</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="N36" s="4">
-        <v>8557</v>
+        <v>11200</v>
       </c>
       <c r="O36" s="4">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R36" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="D37" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="4">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="H37" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
       <c r="N37" s="4">
-        <v>8557</v>
+        <v>7040</v>
       </c>
       <c r="O37" s="4">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R37" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="D38" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G38" s="18">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="G38" s="14">
+        <v>4</v>
       </c>
       <c r="H38" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="N38" s="4">
-        <v>7553</v>
+        <v>7040</v>
       </c>
       <c r="O38" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="D39" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="4">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="G39" s="14">
+        <v>4</v>
       </c>
       <c r="H39" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="N39" s="4">
-        <v>7600</v>
+        <v>7040</v>
       </c>
       <c r="O39" s="4">
         <v>2022</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="Q39" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R39" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="D40" s="4">
         <v>11</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G40" s="4">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G40" s="18">
+        <v>6</v>
       </c>
       <c r="H40" s="4">
-        <v>1000</v>
+        <v>128</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="N40" s="4">
-        <v>8900</v>
+        <v>8000</v>
       </c>
       <c r="O40" s="4">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="R40" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="D41" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G41" s="4">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G41" s="18">
+        <v>6</v>
       </c>
       <c r="H41" s="4">
-        <v>1000</v>
+        <v>128</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="N41" s="4">
-        <v>10340</v>
+        <v>8000</v>
       </c>
       <c r="O41" s="4">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="R41" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="D42" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="4">
-        <v>4</v>
+        <v>70</v>
+      </c>
+      <c r="G42" s="14">
+        <v>6</v>
       </c>
       <c r="H42" s="4">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="N42" s="4">
-        <v>5124</v>
+        <v>10090</v>
       </c>
       <c r="O42" s="4">
         <v>2021</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R42" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4">
-        <v>11</v>
+        <v>188</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="G43" s="18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H43" s="4">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="N43" s="4">
-        <v>7538</v>
+        <v>10090</v>
       </c>
       <c r="O43" s="4">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R43" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="D44" s="4">
         <v>11</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G44" s="4">
+        <v>92</v>
+      </c>
+      <c r="G44" s="14">
         <v>8</v>
       </c>
       <c r="H44" s="4">
-        <v>2000</v>
+        <v>256</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>41</v>
@@ -3783,268 +3773,278 @@
         <v>29</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="N44" s="4">
-        <v>8160</v>
+        <v>8000</v>
       </c>
       <c r="O44" s="4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="R44" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4">
-        <v>11</v>
+        <v>130</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G45" s="4">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="G45" s="18">
+        <v>8</v>
       </c>
       <c r="H45" s="4">
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="N45" s="4">
-        <v>7812</v>
+        <v>10090</v>
       </c>
       <c r="O45" s="4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="Q45" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R45" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4">
-        <v>11</v>
+        <v>132</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="4">
+        <v>92</v>
+      </c>
+      <c r="G46" s="14">
         <v>8</v>
       </c>
       <c r="H46" s="4">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="N46" s="4">
-        <v>7538</v>
+        <v>11200</v>
       </c>
       <c r="O46" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="Q46" s="4" t="s">
         <v>23</v>
       </c>
       <c r="R46" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
-        <v>230</v>
+        <v>73</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="4">
+        <v>11</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="18">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="G47" s="14">
+        <v>8</v>
       </c>
       <c r="H47" s="4">
-        <v>1000</v>
+        <v>128</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="L47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N47" s="4">
+        <v>8400</v>
+      </c>
+      <c r="O47" s="4">
+        <v>2023</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="15">
+        <v>11</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="16">
+        <v>8</v>
+      </c>
+      <c r="H48" s="15">
+        <v>128</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N47" s="4">
-        <v>9720</v>
-      </c>
-      <c r="O47" s="4">
-        <v>2020</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="18">
-        <v>8</v>
-      </c>
-      <c r="H48" s="4">
-        <v>512</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N48" s="4">
-        <v>7538</v>
-      </c>
-      <c r="O48" s="4">
-        <v>2021</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>23</v>
+      <c r="M48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" s="17">
+        <v>8400</v>
+      </c>
+      <c r="O48" s="17">
+        <v>2023</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="R48" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D49" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="4">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G49" s="18">
+        <v>6</v>
       </c>
       <c r="H49" s="4">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>41</v>
@@ -4053,157 +4053,157 @@
         <v>29</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="N49" s="4">
-        <v>7538</v>
+        <v>8000</v>
       </c>
       <c r="O49" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="Q49" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R49" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="4">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G50" s="4">
-        <v>8</v>
+        <v>92</v>
+      </c>
+      <c r="G50" s="18">
+        <v>6</v>
       </c>
       <c r="H50" s="4">
-        <v>2000</v>
+        <v>128</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="N50" s="4">
-        <v>10290</v>
+        <v>8000</v>
       </c>
       <c r="O50" s="4">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s">
-        <v>138</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="4">
-        <v>4</v>
+        <v>92</v>
+      </c>
+      <c r="G51" s="14">
+        <v>8</v>
       </c>
       <c r="H51" s="4">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="N51" s="4">
-        <v>7700</v>
+        <v>10090</v>
       </c>
       <c r="O51" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q51" s="4" t="s">
         <v>45</v>
       </c>
       <c r="R51" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" s="4">
-        <v>11</v>
+        <v>97</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="4">
-        <v>4</v>
+        <v>92</v>
+      </c>
+      <c r="G52" s="14">
+        <v>8</v>
       </c>
       <c r="H52" s="4">
         <v>128</v>
@@ -4212,22 +4212,22 @@
         <v>19</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="L52" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="N52" s="4">
-        <v>7040</v>
+        <v>10090</v>
       </c>
       <c r="O52" s="4">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="P52" s="4" t="s">
         <v>30</v>
@@ -4236,54 +4236,54 @@
         <v>45</v>
       </c>
       <c r="R52" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="4">
-        <v>9</v>
+        <v>85</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" s="4">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="G53" s="14">
+        <v>12</v>
       </c>
       <c r="H53" s="4">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="N53" s="4">
-        <v>5100</v>
+        <v>10090</v>
       </c>
       <c r="O53" s="4">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>30</v>
@@ -4292,63 +4292,63 @@
         <v>45</v>
       </c>
       <c r="R53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>208</v>
+        <v>17</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="G54" s="4">
-        <v>4</v>
+        <v>82</v>
+      </c>
+      <c r="G54" s="14">
+        <v>12</v>
       </c>
       <c r="H54" s="4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="N54" s="4">
-        <v>10200</v>
+        <v>10090</v>
       </c>
       <c r="O54" s="4">
         <v>2023</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="R54" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
@@ -4356,21 +4356,21 @@
         <v>17</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>233</v>
+        <v>88</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G55" s="4">
+        <v>76</v>
+      </c>
+      <c r="G55" s="14">
         <v>12</v>
       </c>
       <c r="H55" s="4">
@@ -4383,7 +4383,7 @@
         <v>83</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>29</v>
@@ -4392,16 +4392,16 @@
         <v>77</v>
       </c>
       <c r="N55" s="4">
-        <v>10090</v>
+        <v>11200</v>
       </c>
       <c r="O55" s="4">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R55" t="s">
         <v>67</v>
@@ -4412,25 +4412,25 @@
         <v>17</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>238</v>
+        <v>87</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>226</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G56" s="4">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="G56" s="14">
+        <v>12</v>
       </c>
       <c r="H56" s="4">
-        <v>1000</v>
+        <v>512</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>19</v>
@@ -4439,10 +4439,10 @@
         <v>83</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>77</v>
@@ -4451,13 +4451,13 @@
         <v>11200</v>
       </c>
       <c r="O56" s="4">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R56" t="s">
         <v>67</v>
